--- a/打包/RND Regression Rusults_20250116.xlsx
+++ b/打包/RND Regression Rusults_20250116.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\RND_Thesis\打包\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FE2061-E7DC-4BBB-8193-C1AE2F242A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAFEE4A-CB50-4155-A7DD-5567A620692E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{CBF08D5D-1F4D-46C7-8EA0-40B904A3BBF8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{CBF08D5D-1F4D-46C7-8EA0-40B904A3BBF8}"/>
   </bookViews>
   <sheets>
     <sheet name="預期日報酬率_一個點" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="63">
   <si>
     <t>Mean</t>
   </si>
@@ -366,9 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T Return</t>
-  </si>
-  <si>
     <t>VIX</t>
   </si>
   <si>
@@ -626,7 +623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -681,13 +678,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1028,26 +1019,26 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="20.61328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.15234375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.69140625" style="1"/>
+    <col min="12" max="12" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.75">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,7 +1072,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>832</v>
@@ -1284,7 +1275,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1">
         <v>832</v>
@@ -1545,7 +1536,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2">
         <v>-1.2164088890871699E-2</v>
@@ -1771,7 +1762,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2">
         <v>6.0987228764561599E-2</v>
@@ -2051,7 +2042,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="2">
         <v>0.122012340762354</v>
@@ -2357,7 +2348,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B60" s="2">
         <v>0.12428698280415</v>
@@ -2614,8 +2605,8 @@
       <c r="E70" s="6"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="18" t="s">
-        <v>53</v>
+      <c r="A72" s="16" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -2630,22 +2621,22 @@
         <v>26</v>
       </c>
       <c r="E73" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F73" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="G73" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G73" s="13" t="s">
+      <c r="H73" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="I73" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I73" s="9" t="s">
+      <c r="J73" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="J73" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="K73" s="9" t="s">
         <v>27</v>
@@ -2664,33 +2655,33 @@
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="19">
+      <c r="B74" s="2">
         <v>1.7732189865892398E-2</v>
       </c>
-      <c r="C74" s="19">
+      <c r="C74" s="2">
         <v>0.72553849270256099</v>
       </c>
       <c r="D74" s="14"/>
-      <c r="E74" s="19">
+      <c r="E74" s="2">
         <v>0.17608577997764499</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F74" s="2">
         <v>0.39571023422207402</v>
       </c>
       <c r="G74" s="14"/>
-      <c r="H74" s="19">
+      <c r="H74" s="2">
         <v>6.3307441916659393E-2</v>
       </c>
-      <c r="I74" s="19">
+      <c r="I74" s="2">
         <v>6.7166087027722393E-2</v>
       </c>
       <c r="J74" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K74" s="19">
+      <c r="K74" s="2">
         <v>-0.256657883607114</v>
       </c>
-      <c r="L74" s="19">
+      <c r="L74" s="2">
         <v>0.22017273267354501</v>
       </c>
       <c r="M74" s="14"/>
@@ -2702,37 +2693,37 @@
       <c r="A75" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="19">
+      <c r="B75" s="2">
         <v>6.3652543503486994E-2</v>
       </c>
-      <c r="C75" s="19">
+      <c r="C75" s="2">
         <v>6.6265346639110406E-2</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E75" s="19">
+      <c r="E75" s="2">
         <v>-8.2292642193721705E-2</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F75" s="2">
         <v>3.4204483091383998E-2</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H75" s="19">
+      <c r="H75" s="2">
         <v>6.3504428149825196E-2</v>
       </c>
-      <c r="I75" s="19">
+      <c r="I75" s="2">
         <v>6.7032517490377003E-2</v>
       </c>
       <c r="J75" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K75" s="19">
+      <c r="K75" s="2">
         <v>1.6937057292638599E-2</v>
       </c>
-      <c r="L75" s="19">
+      <c r="L75" s="2">
         <v>0.66265828187484199</v>
       </c>
       <c r="M75" s="14"/>
@@ -2744,35 +2735,35 @@
       <c r="A76" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="19">
+      <c r="B76" s="2">
         <v>0.107020588241393</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C76" s="2">
         <v>0.31854466805569198</v>
       </c>
       <c r="D76" s="14"/>
-      <c r="E76" s="19">
+      <c r="E76" s="2">
         <v>-7.3313461036074098E-2</v>
       </c>
-      <c r="F76" s="19">
+      <c r="F76" s="2">
         <v>3.4953466783647497E-2</v>
       </c>
       <c r="G76" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H76" s="19">
+      <c r="H76" s="2">
         <v>6.2767498248549006E-2</v>
       </c>
-      <c r="I76" s="19">
+      <c r="I76" s="2">
         <v>6.9732713157915502E-2</v>
       </c>
       <c r="J76" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K76" s="19">
+      <c r="K76" s="2">
         <v>-4.6652501063349998E-2</v>
       </c>
-      <c r="L76" s="19">
+      <c r="L76" s="2">
         <v>0.66405099721689398</v>
       </c>
       <c r="M76" s="14"/>
@@ -2784,37 +2775,37 @@
       <c r="A77" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="19">
+      <c r="B77" s="2">
         <v>6.12381785873427E-2</v>
       </c>
-      <c r="C77" s="19">
+      <c r="C77" s="2">
         <v>7.7135828469585804E-2</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E77" s="19">
+      <c r="E77" s="2">
         <v>-9.6616187366230594E-2</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F77" s="2">
         <v>2.0911758341981401E-2</v>
       </c>
       <c r="G77" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H77" s="19">
+      <c r="H77" s="2">
         <v>5.7578471961962301E-2</v>
       </c>
-      <c r="I77" s="19">
+      <c r="I77" s="2">
         <v>9.9840235031816396E-2</v>
       </c>
       <c r="J77" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K77" s="19">
+      <c r="K77" s="2">
         <v>3.9650921937225102E-2</v>
       </c>
-      <c r="L77" s="19">
+      <c r="L77" s="2">
         <v>0.34787945550513599</v>
       </c>
       <c r="M77" s="14"/>
@@ -2824,39 +2815,39 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B78" s="19">
+        <v>50</v>
+      </c>
+      <c r="B78" s="2">
         <v>6.2087697279972702E-2</v>
       </c>
-      <c r="C78" s="19">
+      <c r="C78" s="2">
         <v>7.2817751391767396E-2</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E78" s="19">
+      <c r="E78" s="2">
         <v>-8.7319755826142695E-2</v>
       </c>
-      <c r="F78" s="19">
+      <c r="F78" s="2">
         <v>1.8211357050456799E-2</v>
       </c>
       <c r="G78" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H78" s="19">
+      <c r="H78" s="2">
         <v>6.0281015697204302E-2</v>
       </c>
-      <c r="I78" s="19">
+      <c r="I78" s="2">
         <v>8.2030799038716906E-2</v>
       </c>
       <c r="J78" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K78" s="19">
+      <c r="K78" s="2">
         <v>-3.6301241883268699E-2</v>
       </c>
-      <c r="L78" s="19">
+      <c r="L78" s="2">
         <v>0.32668749709365402</v>
       </c>
       <c r="M78" s="14"/>
@@ -2868,37 +2859,37 @@
       <c r="A79" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="19">
+      <c r="B79" s="2">
         <v>5.9766165382608497E-2</v>
       </c>
-      <c r="C79" s="19">
+      <c r="C79" s="2">
         <v>8.5515933622443002E-2</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E79" s="19">
+      <c r="E79" s="2">
         <v>-7.3617086313272295E-2</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F79" s="2">
         <v>3.3549709055199099E-2</v>
       </c>
       <c r="G79" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H79" s="19">
+      <c r="H79" s="2">
         <v>6.27847674656761E-2</v>
       </c>
-      <c r="I79" s="19">
+      <c r="I79" s="2">
         <v>6.9515275450039299E-2</v>
       </c>
       <c r="J79" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K79" s="19">
+      <c r="K79" s="2">
         <v>-3.2906597960302097E-2</v>
       </c>
-      <c r="L79" s="19">
+      <c r="L79" s="2">
         <v>0.34325341986398</v>
       </c>
       <c r="M79" s="14"/>
@@ -2910,37 +2901,37 @@
       <c r="A80" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B80" s="19">
+      <c r="B80" s="2">
         <v>6.3961626495471796E-2</v>
       </c>
-      <c r="C80" s="19">
+      <c r="C80" s="2">
         <v>6.4729648187792796E-2</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="19">
+      <c r="E80" s="2">
         <v>-7.50709601371915E-2</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F80" s="2">
         <v>3.0173717358053902E-2</v>
       </c>
       <c r="G80" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H80" s="19">
+      <c r="H80" s="2">
         <v>6.1757532240724902E-2</v>
       </c>
-      <c r="I80" s="19">
+      <c r="I80" s="2">
         <v>7.4325009073653206E-2</v>
       </c>
       <c r="J80" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K80" s="19">
+      <c r="K80" s="2">
         <v>2.9298324399766099E-2</v>
       </c>
-      <c r="L80" s="19">
+      <c r="L80" s="2">
         <v>0.39695382250070399</v>
       </c>
       <c r="M80" s="14"/>
@@ -3004,25 +2995,25 @@
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="20.61328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.15234375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.69140625" style="1"/>
+    <col min="12" max="12" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.75">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3259,7 +3250,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1">
         <v>831</v>
@@ -3518,7 +3509,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2">
         <v>-1.2156663294019999E-2</v>
@@ -3738,7 +3729,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2">
         <v>-2.4028739377543702E-2</v>
@@ -4008,7 +3999,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="2">
         <v>-2.2096297001918199E-2</v>
@@ -4314,7 +4305,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B60" s="2">
         <v>-2.0139285912244401E-2</v>
@@ -4563,8 +4554,8 @@
       <c r="E70" s="6"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="20" t="s">
-        <v>53</v>
+      <c r="A72" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4579,22 +4570,22 @@
         <v>26</v>
       </c>
       <c r="E73" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F73" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="G73" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G73" s="13" t="s">
+      <c r="H73" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="I73" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I73" s="9" t="s">
+      <c r="J73" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="J73" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="K73" s="9" t="s">
         <v>27</v>
@@ -4613,33 +4604,33 @@
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="19">
+      <c r="B74" s="2">
         <v>-3.0640029493658599E-2</v>
       </c>
-      <c r="C74" s="19">
+      <c r="C74" s="2">
         <v>0.38683228161296801</v>
       </c>
       <c r="D74" s="14"/>
-      <c r="E74" s="19">
+      <c r="E74" s="2">
         <v>3.4910392355622301E-2</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F74" s="2">
         <v>0.89289306780775501</v>
       </c>
       <c r="G74" s="14"/>
-      <c r="H74" s="19">
+      <c r="H74" s="2">
         <v>6.2616195405406E-2</v>
       </c>
-      <c r="I74" s="19">
+      <c r="I74" s="2">
         <v>7.1283082167778899E-2</v>
       </c>
       <c r="J74" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K74" s="19">
+      <c r="K74" s="2">
         <v>-0.110312214147267</v>
       </c>
-      <c r="L74" s="19">
+      <c r="L74" s="2">
         <v>0.67122693745219797</v>
       </c>
       <c r="M74" s="14"/>
@@ -4651,35 +4642,35 @@
       <c r="A75" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="19">
+      <c r="B75" s="2">
         <v>-3.4212712641430401E-2</v>
       </c>
-      <c r="C75" s="19">
+      <c r="C75" s="2">
         <v>0.33395841299203299</v>
       </c>
       <c r="D75" s="14"/>
-      <c r="E75" s="19">
+      <c r="E75" s="2">
         <v>-9.6581944307995105E-2</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F75" s="2">
         <v>2.15722283576293E-2</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H75" s="19">
+      <c r="H75" s="2">
         <v>6.3611767482810999E-2</v>
       </c>
-      <c r="I75" s="19">
+      <c r="I75" s="2">
         <v>6.6937406974189997E-2</v>
       </c>
       <c r="J75" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K75" s="19">
+      <c r="K75" s="2">
         <v>4.0099757942502499E-2</v>
       </c>
-      <c r="L75" s="19">
+      <c r="L75" s="2">
         <v>0.34113632153288498</v>
       </c>
       <c r="M75" s="14"/>
@@ -4691,35 +4682,35 @@
       <c r="A76" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="19">
+      <c r="B76" s="2">
         <v>-2.6257154145523601E-2</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C76" s="2">
         <v>0.45125567015273998</v>
       </c>
       <c r="D76" s="14"/>
-      <c r="E76" s="19">
+      <c r="E76" s="2">
         <v>-7.2678343833491602E-2</v>
       </c>
-      <c r="F76" s="19">
+      <c r="F76" s="2">
         <v>3.7066227604889201E-2</v>
       </c>
       <c r="G76" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H76" s="19">
+      <c r="H76" s="2">
         <v>6.23576503818754E-2</v>
       </c>
-      <c r="I76" s="19">
+      <c r="I76" s="2">
         <v>7.2399601726786306E-2</v>
       </c>
       <c r="J76" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K76" s="19">
+      <c r="K76" s="2">
         <v>2.3492525354554501E-2</v>
       </c>
-      <c r="L76" s="19">
+      <c r="L76" s="2">
         <v>0.49921503720629501</v>
       </c>
       <c r="M76" s="14"/>
@@ -4731,33 +4722,33 @@
       <c r="A77" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="19">
+      <c r="B77" s="2">
         <v>-3.29244635822908E-2</v>
       </c>
-      <c r="C77" s="19">
+      <c r="C77" s="2">
         <v>0.34755030743180598</v>
       </c>
       <c r="D77" s="14"/>
-      <c r="E77" s="19">
+      <c r="E77" s="2">
         <v>-0.101421304938361</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F77" s="2">
         <v>1.6468731250169202E-2</v>
       </c>
       <c r="G77" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H77" s="19">
+      <c r="H77" s="2">
         <v>5.61359827452593E-2</v>
       </c>
-      <c r="I77" s="19">
+      <c r="I77" s="2">
         <v>0.110059992728633</v>
       </c>
       <c r="J77" s="14"/>
-      <c r="K77" s="19">
+      <c r="K77" s="2">
         <v>4.8360004870854699E-2</v>
       </c>
-      <c r="L77" s="19">
+      <c r="L77" s="2">
         <v>0.25621935330360002</v>
       </c>
       <c r="M77" s="14"/>
@@ -4767,37 +4758,37 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B78" s="19">
+        <v>50</v>
+      </c>
+      <c r="B78" s="2">
         <v>-2.53857536815741E-2</v>
       </c>
-      <c r="C78" s="19">
+      <c r="C78" s="2">
         <v>0.46648423958464302</v>
       </c>
       <c r="D78" s="14"/>
-      <c r="E78" s="19">
+      <c r="E78" s="2">
         <v>-8.6402897875977894E-2</v>
       </c>
-      <c r="F78" s="19">
+      <c r="F78" s="2">
         <v>1.97577368795183E-2</v>
       </c>
       <c r="G78" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H78" s="19">
+      <c r="H78" s="2">
         <v>6.0351581227066103E-2</v>
       </c>
-      <c r="I78" s="19">
+      <c r="I78" s="2">
         <v>8.2584789498377206E-2</v>
       </c>
       <c r="J78" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K78" s="19">
+      <c r="K78" s="2">
         <v>-3.5614234756661999E-2</v>
       </c>
-      <c r="L78" s="19">
+      <c r="L78" s="2">
         <v>0.337847435469116</v>
       </c>
       <c r="M78" s="14"/>
@@ -4809,35 +4800,35 @@
       <c r="A79" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="19">
+      <c r="B79" s="2">
         <v>-3.6476547331348697E-2</v>
       </c>
-      <c r="C79" s="19">
+      <c r="C79" s="2">
         <v>0.30277272846862002</v>
       </c>
       <c r="D79" s="14"/>
-      <c r="E79" s="19">
+      <c r="E79" s="2">
         <v>-7.3583198662731705E-2</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F79" s="2">
         <v>3.4305742779192502E-2</v>
       </c>
       <c r="G79" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H79" s="19">
+      <c r="H79" s="2">
         <v>6.2318610902613598E-2</v>
       </c>
-      <c r="I79" s="19">
+      <c r="I79" s="2">
         <v>7.2368210324381899E-2</v>
       </c>
       <c r="J79" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K79" s="19">
+      <c r="K79" s="2">
         <v>-4.5466529703416199E-2</v>
       </c>
-      <c r="L79" s="19">
+      <c r="L79" s="2">
         <v>0.19734535957556401</v>
       </c>
       <c r="M79" s="14"/>
@@ -4849,35 +4840,35 @@
       <c r="A80" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B80" s="19">
+      <c r="B80" s="2">
         <v>-2.6527201005223499E-2</v>
       </c>
-      <c r="C80" s="19">
+      <c r="C80" s="2">
         <v>0.44619811394542203</v>
       </c>
       <c r="D80" s="14"/>
-      <c r="E80" s="19">
+      <c r="E80" s="2">
         <v>-7.4422185678583205E-2</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F80" s="2">
         <v>3.2427621192728302E-2</v>
       </c>
       <c r="G80" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H80" s="19">
+      <c r="H80" s="2">
         <v>6.1867774800556802E-2</v>
       </c>
-      <c r="I80" s="19">
+      <c r="I80" s="2">
         <v>7.4737753883873798E-2</v>
       </c>
       <c r="J80" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K80" s="19">
+      <c r="K80" s="2">
         <v>2.4943825199579502E-2</v>
       </c>
-      <c r="L80" s="19">
+      <c r="L80" s="2">
         <v>0.47214886696596903</v>
       </c>
       <c r="M80" s="14"/>
@@ -4939,25 +4930,25 @@
       <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="20.61328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.15234375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.69140625" style="1"/>
+    <col min="12" max="12" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.75">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -5194,7 +5185,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1">
         <v>119</v>
@@ -5455,7 +5446,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2">
         <v>-4.5389119774713202E-2</v>
@@ -5669,7 +5660,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2">
         <v>-7.3485970474436099E-2</v>
@@ -5937,7 +5928,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="2">
         <v>1.92069085683775E-2</v>
@@ -6237,7 +6228,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B60" s="2">
         <v>4.7492513671273003E-2</v>
@@ -6420,7 +6411,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="16.75">
+    <row r="67" spans="1:14" ht="17">
       <c r="A67" s="12"/>
       <c r="B67" s="9" t="s">
         <v>20</v>
@@ -6486,8 +6477,8 @@
       <c r="E70" s="6"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="20" t="s">
-        <v>53</v>
+      <c r="A72" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -6502,22 +6493,22 @@
         <v>33</v>
       </c>
       <c r="E73" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F73" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="G73" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G73" s="13" t="s">
-        <v>56</v>
-      </c>
       <c r="H73" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I73" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I73" s="9" t="s">
+      <c r="J73" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="J73" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="K73" s="9" t="s">
         <v>27</v>
@@ -6536,33 +6527,33 @@
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="19">
+      <c r="B74" s="2">
         <v>-0.15860197410903601</v>
       </c>
-      <c r="C74" s="19">
+      <c r="C74" s="2">
         <v>0.22643520362993899</v>
       </c>
       <c r="D74" s="14"/>
-      <c r="E74" s="19">
+      <c r="E74" s="2">
         <v>-8.3001743287273097E-3</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F74" s="2">
         <v>0.99905408325345202</v>
       </c>
       <c r="G74" s="14"/>
-      <c r="H74" s="19">
+      <c r="H74" s="2">
         <v>0.21894848050096899</v>
       </c>
-      <c r="I74" s="19">
+      <c r="I74" s="2">
         <v>7.8745989975773395E-2</v>
       </c>
       <c r="J74" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K74" s="19">
+      <c r="K74" s="2">
         <v>-0.26342391936666898</v>
       </c>
-      <c r="L74" s="19">
+      <c r="L74" s="2">
         <v>0.97011572075816699</v>
       </c>
       <c r="M74" s="14"/>
@@ -6574,35 +6565,35 @@
       <c r="A75" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="19">
+      <c r="B75" s="2">
         <v>-0.229230452912705</v>
       </c>
-      <c r="C75" s="19">
+      <c r="C75" s="2">
         <v>0.11443020658799501</v>
       </c>
       <c r="D75" s="14"/>
-      <c r="E75" s="19">
+      <c r="E75" s="2">
         <v>-0.36263933553028299</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F75" s="2">
         <v>5.2384727576714703E-2</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H75" s="19">
+      <c r="H75" s="2">
         <v>0.22583662523533199</v>
       </c>
-      <c r="I75" s="19">
+      <c r="I75" s="2">
         <v>4.9343717603116899E-2</v>
       </c>
       <c r="J75" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K75" s="19">
+      <c r="K75" s="2">
         <v>0.123766659697431</v>
       </c>
-      <c r="L75" s="19">
+      <c r="L75" s="2">
         <v>0.53859905388699403</v>
       </c>
       <c r="M75" s="14"/>
@@ -6614,35 +6605,35 @@
       <c r="A76" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="19">
+      <c r="B76" s="2">
         <v>-0.11851142182865</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C76" s="2">
         <v>0.352353583694345</v>
       </c>
       <c r="D76" s="14"/>
-      <c r="E76" s="19">
+      <c r="E76" s="2">
         <v>-0.28125066727674802</v>
       </c>
-      <c r="F76" s="19">
+      <c r="F76" s="2">
         <v>1.2844022544292099E-2</v>
       </c>
       <c r="G76" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H76" s="19">
+      <c r="H76" s="2">
         <v>0.250560253561387</v>
       </c>
-      <c r="I76" s="19">
+      <c r="I76" s="2">
         <v>5.7239522414402298E-2</v>
       </c>
       <c r="J76" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K76" s="19">
+      <c r="K76" s="2">
         <v>-7.4662414385321299E-2</v>
       </c>
-      <c r="L76" s="19">
+      <c r="L76" s="2">
         <v>0.60989552705736105</v>
       </c>
       <c r="M76" s="14"/>
@@ -6652,37 +6643,37 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" s="19">
+        <v>50</v>
+      </c>
+      <c r="B77" s="2">
         <v>-0.16333039146436701</v>
       </c>
-      <c r="C77" s="19">
+      <c r="C77" s="2">
         <v>9.78519315735073E-2</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E77" s="19">
+      <c r="E77" s="2">
         <v>-0.27076065722117398</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F77" s="2">
         <v>1.4860585842612E-2</v>
       </c>
       <c r="G77" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H77" s="19">
+      <c r="H77" s="2">
         <v>0.22083395148667601</v>
       </c>
-      <c r="I77" s="19">
+      <c r="I77" s="2">
         <v>0.101954347928017</v>
       </c>
       <c r="J77" s="14"/>
-      <c r="K77" s="19">
+      <c r="K77" s="2">
         <v>5.9026336928958102E-3</v>
       </c>
-      <c r="L77" s="19">
+      <c r="L77" s="2">
         <v>0.958506336866222</v>
       </c>
       <c r="M77" s="14"/>
@@ -6694,37 +6685,37 @@
       <c r="A78" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="19">
+      <c r="B78" s="2">
         <v>-0.187074552672952</v>
       </c>
-      <c r="C78" s="19">
+      <c r="C78" s="2">
         <v>5.30824860934229E-2</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E78" s="19">
+      <c r="E78" s="2">
         <v>-0.29339587374697601</v>
       </c>
-      <c r="F78" s="19">
+      <c r="F78" s="2">
         <v>8.7980244958098495E-3</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H78" s="19">
+        <v>62</v>
+      </c>
+      <c r="H78" s="2">
         <v>0.28301862986762499</v>
       </c>
-      <c r="I78" s="19">
+      <c r="I78" s="2">
         <v>2.3573223931912E-2</v>
       </c>
       <c r="J78" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K78" s="19">
+      <c r="K78" s="2">
         <v>-0.12798741102464001</v>
       </c>
-      <c r="L78" s="19">
+      <c r="L78" s="2">
         <v>0.201213756105627</v>
       </c>
       <c r="M78" s="14"/>
@@ -6736,37 +6727,37 @@
       <c r="A79" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="19">
+      <c r="B79" s="2">
         <v>-0.16313435658049599</v>
       </c>
-      <c r="C79" s="19">
+      <c r="C79" s="2">
         <v>8.6742389754231194E-2</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E79" s="19">
+      <c r="E79" s="2">
         <v>-0.274521351836015</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F79" s="2">
         <v>1.4154958716573299E-2</v>
       </c>
       <c r="G79" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H79" s="19">
+      <c r="H79" s="2">
         <v>0.22897268131461701</v>
       </c>
-      <c r="I79" s="19">
+      <c r="I79" s="2">
         <v>5.8578958608277103E-2</v>
       </c>
       <c r="J79" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K79" s="19">
+      <c r="K79" s="2">
         <v>-2.8594172632662701E-2</v>
       </c>
-      <c r="L79" s="19">
+      <c r="L79" s="2">
         <v>0.76763679691554798</v>
       </c>
       <c r="M79" s="14"/>
@@ -6778,37 +6769,37 @@
       <c r="A80" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="19">
+      <c r="B80" s="2">
         <v>-0.165350131725745</v>
       </c>
-      <c r="C80" s="19">
+      <c r="C80" s="2">
         <v>8.3837486639022796E-2</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="19">
+      <c r="E80" s="2">
         <v>-0.27345715622887501</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F80" s="2">
         <v>1.4070144125778001E-2</v>
       </c>
       <c r="G80" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H80" s="19">
+      <c r="H80" s="2">
         <v>0.22901194870865299</v>
       </c>
-      <c r="I80" s="19">
+      <c r="I80" s="2">
         <v>5.44431601484947E-2</v>
       </c>
       <c r="J80" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K80" s="19">
+      <c r="K80" s="2">
         <v>-3.35486058583499E-2</v>
       </c>
-      <c r="L80" s="19">
+      <c r="L80" s="2">
         <v>0.72448868497721997</v>
       </c>
       <c r="M80" s="14"/>
@@ -6868,27 +6859,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E141791C-34E6-4377-8BFA-B146CB0E0BD0}">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="20.61328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.15234375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.69140625" style="1"/>
+    <col min="12" max="12" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.75">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -7384,7 +7377,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2">
         <v>-4.5389119774713202E-2</v>
@@ -7598,7 +7591,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2">
         <v>-7.3631895874292405E-2</v>
@@ -7866,7 +7859,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="2">
         <v>2.0681971986648999E-2</v>
@@ -8166,7 +8159,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B60" s="2">
         <v>4.7624533505214998E-2</v>
@@ -8412,8 +8405,8 @@
       <c r="E70" s="6"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="20" t="s">
-        <v>53</v>
+      <c r="A72" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -8428,22 +8421,22 @@
         <v>33</v>
       </c>
       <c r="E73" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F73" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="G73" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G73" s="13" t="s">
-        <v>56</v>
-      </c>
       <c r="H73" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I73" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I73" s="9" t="s">
+      <c r="J73" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="J73" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="K73" s="9" t="s">
         <v>27</v>
@@ -8462,33 +8455,33 @@
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="19">
+      <c r="B74" s="2">
         <v>-0.15842824410553</v>
       </c>
-      <c r="C74" s="19">
+      <c r="C74" s="2">
         <v>0.226491762567088</v>
       </c>
       <c r="D74" s="14"/>
-      <c r="E74" s="19">
+      <c r="E74" s="2">
         <v>3.0055313720741498E-3</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F74" s="2">
         <v>0.99965724304012604</v>
       </c>
       <c r="G74" s="14"/>
-      <c r="H74" s="19">
+      <c r="H74" s="2">
         <v>0.21864862560024501</v>
       </c>
-      <c r="I74" s="19">
+      <c r="I74" s="2">
         <v>7.9208094288292202E-2</v>
       </c>
       <c r="J74" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K74" s="19">
+      <c r="K74" s="2">
         <v>-0.27368902357924602</v>
       </c>
-      <c r="L74" s="19">
+      <c r="L74" s="2">
         <v>0.96893317710524596</v>
       </c>
       <c r="M74" s="14"/>
@@ -8500,35 +8493,35 @@
       <c r="A75" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="19">
+      <c r="B75" s="2">
         <v>-0.22989717369912199</v>
       </c>
-      <c r="C75" s="19">
+      <c r="C75" s="2">
         <v>0.113950454125061</v>
       </c>
       <c r="D75" s="14"/>
-      <c r="E75" s="19">
+      <c r="E75" s="2">
         <v>-0.36197574844512098</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F75" s="2">
         <v>5.2343370674254597E-2</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H75" s="19">
+      <c r="H75" s="2">
         <v>0.22542134558485699</v>
       </c>
-      <c r="I75" s="19">
+      <c r="I75" s="2">
         <v>4.95855863437056E-2</v>
       </c>
       <c r="J75" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K75" s="19">
+      <c r="K75" s="2">
         <v>0.124953463902216</v>
       </c>
-      <c r="L75" s="19">
+      <c r="L75" s="2">
         <v>0.53555817031034403</v>
       </c>
       <c r="M75" s="14"/>
@@ -8540,35 +8533,35 @@
       <c r="A76" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="19">
+      <c r="B76" s="2">
         <v>-0.118169446238368</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C76" s="2">
         <v>0.35333064273057402</v>
       </c>
       <c r="D76" s="14"/>
-      <c r="E76" s="19">
+      <c r="E76" s="2">
         <v>-0.28057097160981698</v>
       </c>
-      <c r="F76" s="19">
+      <c r="F76" s="2">
         <v>1.3087338030498601E-2</v>
       </c>
       <c r="G76" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H76" s="19">
+      <c r="H76" s="2">
         <v>0.25057349046117799</v>
       </c>
-      <c r="I76" s="19">
+      <c r="I76" s="2">
         <v>5.7339062318741599E-2</v>
       </c>
       <c r="J76" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K76" s="19">
+      <c r="K76" s="2">
         <v>-7.5247954697683E-2</v>
       </c>
-      <c r="L76" s="19">
+      <c r="L76" s="2">
         <v>0.60696998480058495</v>
       </c>
       <c r="M76" s="14"/>
@@ -8578,37 +8571,37 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" s="19">
+        <v>50</v>
+      </c>
+      <c r="B77" s="2">
         <v>-0.163338374183643</v>
       </c>
-      <c r="C77" s="19">
+      <c r="C77" s="2">
         <v>9.7794435221439296E-2</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E77" s="19">
+      <c r="E77" s="2">
         <v>-0.26964866327326098</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F77" s="2">
         <v>1.5180427196083E-2</v>
       </c>
       <c r="G77" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H77" s="19">
+      <c r="H77" s="2">
         <v>0.220586238841812</v>
       </c>
-      <c r="I77" s="19">
+      <c r="I77" s="2">
         <v>0.102185650839916</v>
       </c>
       <c r="J77" s="14"/>
-      <c r="K77" s="19">
+      <c r="K77" s="2">
         <v>6.1159522162132704E-3</v>
       </c>
-      <c r="L77" s="19">
+      <c r="L77" s="2">
         <v>0.957020374056894</v>
       </c>
       <c r="M77" s="14"/>
@@ -8620,37 +8613,37 @@
       <c r="A78" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="19">
+      <c r="B78" s="2">
         <v>-0.186926682973618</v>
       </c>
-      <c r="C78" s="19">
+      <c r="C78" s="2">
         <v>5.3146679218993499E-2</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E78" s="19">
+      <c r="E78" s="2">
         <v>-0.29208053867750999</v>
       </c>
-      <c r="F78" s="19">
+      <c r="F78" s="2">
         <v>9.0302941835876394E-3</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H78" s="19">
+        <v>62</v>
+      </c>
+      <c r="H78" s="2">
         <v>0.282490506752134</v>
       </c>
-      <c r="I78" s="19">
+      <c r="I78" s="2">
         <v>2.37329437297061E-2</v>
       </c>
       <c r="J78" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K78" s="19">
+      <c r="K78" s="2">
         <v>-0.127864514946815</v>
       </c>
-      <c r="L78" s="19">
+      <c r="L78" s="2">
         <v>0.20159499366309599</v>
       </c>
       <c r="M78" s="14"/>
@@ -8662,37 +8655,37 @@
       <c r="A79" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="19">
+      <c r="B79" s="2">
         <v>-0.16307452750498799</v>
       </c>
-      <c r="C79" s="19">
+      <c r="C79" s="2">
         <v>8.6724126991687606E-2</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E79" s="19">
+      <c r="E79" s="2">
         <v>-0.27339195359798601</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F79" s="2">
         <v>1.4466963487343699E-2</v>
       </c>
       <c r="G79" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H79" s="19">
+      <c r="H79" s="2">
         <v>0.22855679295242701</v>
       </c>
-      <c r="I79" s="19">
+      <c r="I79" s="2">
         <v>5.8890119869600098E-2</v>
       </c>
       <c r="J79" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K79" s="19">
+      <c r="K79" s="2">
         <v>-2.8527773334474999E-2</v>
       </c>
-      <c r="L79" s="19">
+      <c r="L79" s="2">
         <v>0.76815667009733102</v>
       </c>
       <c r="M79" s="14"/>
@@ -8704,37 +8697,37 @@
       <c r="A80" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="19">
+      <c r="B80" s="2">
         <v>-0.1652676303707</v>
       </c>
-      <c r="C80" s="19">
+      <c r="C80" s="2">
         <v>8.38436709210377E-2</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="19">
+      <c r="E80" s="2">
         <v>-0.27230958628783503</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F80" s="2">
         <v>1.43866219242101E-2</v>
       </c>
       <c r="G80" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H80" s="19">
+      <c r="H80" s="2">
         <v>0.22857187783261801</v>
       </c>
-      <c r="I80" s="19">
+      <c r="I80" s="2">
         <v>5.4749648874043703E-2</v>
       </c>
       <c r="J80" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K80" s="19">
+      <c r="K80" s="2">
         <v>-3.3429683024405597E-2</v>
       </c>
-      <c r="L80" s="19">
+      <c r="L80" s="2">
         <v>0.72540647230950195</v>
       </c>
       <c r="M80" s="14"/>
